--- a/data_year/zb/建筑业/专业承包建筑业企业主要经济指标.xlsx
+++ b/data_year/zb/建筑业/专业承包建筑业企业主要经济指标.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,277 +478,122 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17668325.9</v>
+        <v>49111398</v>
       </c>
       <c r="C2" t="n">
-        <v>14818362.2</v>
+        <v>30554930</v>
       </c>
       <c r="D2" t="n">
-        <v>354.0645</v>
+        <v>444.7359</v>
       </c>
       <c r="E2" t="n">
-        <v>354.63964</v>
+        <v>927.1244</v>
       </c>
       <c r="F2" t="n">
-        <v>26361</v>
+        <v>32433</v>
       </c>
       <c r="G2" t="n">
-        <v>47180114.5</v>
+        <v>108764057</v>
       </c>
       <c r="H2" t="n">
-        <v>14693426.4</v>
+        <v>29097728</v>
       </c>
       <c r="I2" t="n">
-        <v>123045.96</v>
+        <v>202938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22109309.8</v>
+        <v>61165175.8</v>
       </c>
       <c r="C3" t="n">
-        <v>16331484.5</v>
+        <v>33718196.7</v>
       </c>
       <c r="D3" t="n">
-        <v>351.6753</v>
+        <v>409.1058</v>
       </c>
       <c r="E3" t="n">
-        <v>414.6739</v>
+        <v>1061.48125</v>
       </c>
       <c r="F3" t="n">
-        <v>26991</v>
+        <v>31800</v>
       </c>
       <c r="G3" t="n">
-        <v>55238809.5</v>
+        <v>126993832.2</v>
       </c>
       <c r="H3" t="n">
-        <v>16798015.2</v>
+        <v>32110459.7</v>
       </c>
       <c r="I3" t="n">
-        <v>141404.69</v>
+        <v>217579.48067595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27045522.8</v>
+        <v>70964519.8</v>
       </c>
       <c r="C4" t="n">
-        <v>19664432</v>
+        <v>40241200.3</v>
       </c>
       <c r="D4" t="n">
-        <v>377.6976</v>
+        <v>439.4225</v>
       </c>
       <c r="E4" t="n">
-        <v>500.7729</v>
+        <v>1180.47209</v>
       </c>
       <c r="F4" t="n">
-        <v>28003</v>
+        <v>32249</v>
       </c>
       <c r="G4" t="n">
-        <v>66243785.6</v>
+        <v>147442872.2</v>
       </c>
       <c r="H4" t="n">
-        <v>19533830.8</v>
+        <v>36237152.1</v>
       </c>
       <c r="I4" t="n">
-        <v>156670.96</v>
+        <v>300817.8114788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31498897.1</v>
+        <v>81783530.7</v>
       </c>
       <c r="C5" t="n">
-        <v>23702739.7</v>
+        <v>46681681.4</v>
       </c>
       <c r="D5" t="n">
-        <v>391.2793</v>
-      </c>
-      <c r="E5" t="n">
-        <v>683.08962</v>
-      </c>
+        <v>463.5512</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>32883</v>
+        <v>33415</v>
       </c>
       <c r="G5" t="n">
-        <v>78099961.3</v>
+        <v>168791164.2</v>
       </c>
       <c r="H5" t="n">
-        <v>22898324.5</v>
+        <v>40325952.1</v>
       </c>
       <c r="I5" t="n">
-        <v>165155.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>37248913.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25980043.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>409.1865</v>
-      </c>
-      <c r="E6" t="n">
-        <v>756.76791</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32442</v>
-      </c>
-      <c r="G6" t="n">
-        <v>88431532.59999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>25202575.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>180390.93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>49111398</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30554930</v>
-      </c>
-      <c r="D7" t="n">
-        <v>444.7359</v>
-      </c>
-      <c r="E7" t="n">
-        <v>927.1244</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32433</v>
-      </c>
-      <c r="G7" t="n">
-        <v>108764057</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29097728</v>
-      </c>
-      <c r="I7" t="n">
-        <v>202938</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>61165175.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33718196.7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>409.1058</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1061.48125</v>
-      </c>
-      <c r="F8" t="n">
-        <v>31800</v>
-      </c>
-      <c r="G8" t="n">
-        <v>126993832.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>32110459.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>217579.48067595</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>70964519.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40241200.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>439.4225</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1180.47209</v>
-      </c>
-      <c r="F9" t="n">
-        <v>32249</v>
-      </c>
-      <c r="G9" t="n">
-        <v>147442872.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>36237152.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>300817.8114788</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>81783530.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>46681681.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>463.5512</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>33415</v>
-      </c>
-      <c r="G10" t="n">
-        <v>168791164.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>40325952.1</v>
-      </c>
-      <c r="I10" t="n">
         <v>327802.79105285</v>
       </c>
     </row>
